--- a/int.xlsx
+++ b/int.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Intersection</t>
   </si>
@@ -34,12 +33,6 @@
     <t>State and Washington</t>
   </si>
   <si>
-    <t>Total_acc_before</t>
-  </si>
-  <si>
-    <t>Total_acc_after</t>
-  </si>
-  <si>
     <t>Acc_Injuries_after</t>
   </si>
   <si>
@@ -53,9 +46,6 @@
   </si>
   <si>
     <t>Inj_chg</t>
-  </si>
-  <si>
-    <t>Total_chg</t>
   </si>
   <si>
     <t>Decrease</t>
@@ -541,345 +531,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2007</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2008</v>
-      </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2010</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <f>AVERAGE(C2:C5)</f>
-        <v>12.5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:G6" si="0">AVERAGE(D2:D5)</f>
-        <v>10</v>
-      </c>
-      <c r="E6" t="b">
-        <f>IF(D6&gt;=C6,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="H6" t="b">
-        <f>IF(G6&gt;=F6,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="b">
-        <f t="shared" ref="E7:E8" si="1">IF(D7&gt;=C7,TRUE)</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="b">
-        <f t="shared" ref="H7:H8" si="2">IF(G7&gt;=F7,TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
+        <v>8.5</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>41.885733000000002</v>
       </c>
       <c r="G2">
-        <v>8.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>41.885733000000002</v>
-      </c>
-      <c r="J2">
         <v>-87.624533</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>41.884451337000002</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>41.884451337000002</v>
-      </c>
-      <c r="J3">
         <v>-87.632478000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
